--- a/data/158/BOJ/PR.xlsx
+++ b/data/158/BOJ/PR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ADZ2"/>
+  <dimension ref="A1:AEA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4369,30 +4369,35 @@
       </c>
       <c r="ADU1" s="1" t="inlineStr">
         <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="ADV1" s="1" t="inlineStr">
+      <c r="ADW1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="ADW1" s="1" t="inlineStr">
+      <c r="ADX1" s="1" t="inlineStr">
         <is>
           <t>form_c</t>
         </is>
       </c>
-      <c r="ADX1" s="1" t="inlineStr">
+      <c r="ADY1" s="1" t="inlineStr">
         <is>
           <t>note</t>
         </is>
       </c>
-      <c r="ADY1" s="1" t="inlineStr">
+      <c r="ADZ1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="ADZ1" s="1" t="inlineStr">
+      <c r="AEA1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -6801,28 +6806,31 @@
       <c r="ADT2" t="n">
         <v>-0.1</v>
       </c>
-      <c r="ADU2" t="inlineStr">
+      <c r="ADU2" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="ADV2" t="inlineStr">
         <is>
           <t>RMTGO</t>
         </is>
       </c>
-      <c r="ADV2" t="inlineStr">
+      <c r="ADW2" t="inlineStr">
         <is>
           <t>Interest Rates and Bond Yields, Policy Rate (End of Period)</t>
         </is>
       </c>
-      <c r="ADW2" t="inlineStr">
+      <c r="ADX2" t="inlineStr">
         <is>
           <t>Not Seasonally Adjusted</t>
         </is>
       </c>
-      <c r="ADX2" t="inlineStr"/>
-      <c r="ADY2" t="inlineStr">
+      <c r="ADY2" t="inlineStr"/>
+      <c r="ADZ2" t="inlineStr">
         <is>
           <t>Policy Rate</t>
         </is>
       </c>
-      <c r="ADZ2" t="inlineStr">
+      <c r="AEA2" t="inlineStr">
         <is>
           <t>Percent</t>
         </is>
